--- a/jxls-poi/src/test/resources/org/jxls/templatebasedtests/Issue166Test_3.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls/templatebasedtests/Issue166Test_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\JobStuff\GitRepos\jxls\jxls-poi\src\test\resources\org\jxls\templatebasedtests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\2023Stuff\GitRepos\jxls\jxls-poi\src\test\resources\org\jxls\templatebasedtests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02190DC2-9B62-4ABD-8A75-A6592AAE0433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA654E2-BA1B-4747-AB5F-9E33CF5E2FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F58573AF-43AE-4CF3-A723-257E0232585C}"/>
+    <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{F58573AF-43AE-4CF3-A723-257E0232585C}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -92,12 +92,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
   </si>
   <si>
     <t>${cf.mach("e.abc")}</t>
+  </si>
+  <si>
+    <t>${e}</t>
   </si>
 </sst>
 </file>
@@ -477,25 +480,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72F28B7-CABB-4614-8121-A68CFE71B299}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
